--- a/HuntingBrave_client/DATA/PlTitle_data.xlsx
+++ b/HuntingBrave_client/DATA/PlTitle_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>前の単語</t>
     <phoneticPr fontId="18"/>
@@ -125,6 +125,14 @@
   </si>
   <si>
     <t>冷酷な</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>となりの</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>怪獣</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1083,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1208,6 +1216,14 @@
         <v>26</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HuntingBrave_client/DATA/PlTitle_data.xlsx
+++ b/HuntingBrave_client/DATA/PlTitle_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>前の単語</t>
     <phoneticPr fontId="18"/>
@@ -133,6 +133,30 @@
   </si>
   <si>
     <t>怪獣</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ファン</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>熱狂的な</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>おじさん</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>最高の</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>しまっちゃう</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>聖職者</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1091,17 +1115,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="8" max="8" width="68.25" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -1224,6 +1248,30 @@
         <v>29</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HuntingBrave_client/DATA/PlTitle_data.xlsx
+++ b/HuntingBrave_client/DATA/PlTitle_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="135" windowWidth="18315" windowHeight="9630"/>
   </bookViews>
   <sheets>
-    <sheet name="player_data" sheetId="1" r:id="rId1"/>
+    <sheet name="PlTitle_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -60,18 +60,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>自宅では</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>勇猛たる</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>強そうな</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>絶海の</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -88,18 +76,10 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>ひよっこ</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>豪炎の</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>ハンター</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>凄腕</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -116,10 +96,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>壮麗なる</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>暗殺者</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -128,35 +104,59 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>怪獣</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ファン</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>最高の</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>聖職者</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>家では</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>勇猛な</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>強力な</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ダメな</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>可憐な</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>となりの</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>怪獣</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ファン</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>熱狂的な</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>おじさん</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>最高の</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>しまっちゃう</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>聖職者</t>
+    <t>狩人</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>熱狂の</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>覇たる</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1186,90 +1186,90 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
